--- a/env.xlsx
+++ b/env.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubap\Documents\THESIS\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubap\Documents\THESIS\gitrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C74357-39D2-4ED4-B072-922FCD41A0AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9EA1DC-4FD2-4C8D-95D1-35FFE8D8D3CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BATHY" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="SSP_GRAD" sheetId="3" r:id="rId3"/>
     <sheet name="SSP_PROP" sheetId="4" r:id="rId4"/>
     <sheet name="SSP_STAT" sheetId="7" r:id="rId5"/>
-    <sheet name="SSP_true" sheetId="6" r:id="rId6"/>
+    <sheet name="SSP_LEVITUS" sheetId="6" r:id="rId6"/>
     <sheet name="SSP_interp" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -564,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -1802,7 +1802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -23336,6 +23336,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="BF1:BI1"/>
     <mergeCell ref="CD1:CG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="CL1:CO1"/>
@@ -23345,21 +23360,6 @@
     <mergeCell ref="BR1:BU1"/>
     <mergeCell ref="BV1:BY1"/>
     <mergeCell ref="BZ1:CC1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23369,7 +23369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
